--- a/GEMSB_Gantt_Chart.xlsx
+++ b/GEMSB_Gantt_Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1F5BC7-E858-4690-9337-B65D50FE3DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A73ED1-6BCF-4E91-A4CA-92E368565BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Task 3</t>
   </si>
@@ -228,14 +228,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d"/>
-    <numFmt numFmtId="168" formatCode="m/d/yy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="169" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +380,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +620,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -616,10 +629,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -629,7 +642,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -656,13 +669,13 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,10 +695,10 @@
     <xf numFmtId="9" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,10 +710,10 @@
     <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,10 +725,10 @@
     <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,10 +743,10 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -768,16 +781,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="8" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="11" applyFill="1">
@@ -827,7 +840,7 @@
     <xf numFmtId="9" fontId="20" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,7 +852,28 @@
     <xf numFmtId="9" fontId="20" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
@@ -848,26 +882,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1381,26 +1397,26 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="101" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.6328125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="37.36328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.6328125" customWidth="1"/>
+    <col min="8" max="8" width="6.08984375" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.54296875" customWidth="1"/>
+    <col min="69" max="70" width="10.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="44" t="s">
         <v>19</v>
       </c>
@@ -1414,120 +1430,120 @@
       <c r="H1" s="2"/>
       <c r="I1" s="66"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="48"/>
       <c r="I2" s="67"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="81">
+      <c r="D3" s="84"/>
+      <c r="E3" s="82">
         <v>44844</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="82"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="79">
         <f>I5</f>
         <v>44844</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="78">
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="79">
         <f>P5</f>
         <v>44851</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78">
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="79">
         <f>W5</f>
         <v>44858</v>
       </c>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="78">
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="79">
         <f>AD5</f>
         <v>44865</v>
       </c>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="78">
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="81"/>
+      <c r="AK4" s="79">
         <f>AK5</f>
         <v>44872</v>
       </c>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="78">
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="79">
         <f>AR5</f>
         <v>44879</v>
       </c>
-      <c r="AS4" s="79"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="78">
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="79">
         <f>AY5</f>
         <v>44886</v>
       </c>
-      <c r="AZ4" s="79"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="80"/>
-      <c r="BF4" s="78">
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="81"/>
+      <c r="BF4" s="79">
         <f>BF5</f>
         <v>44893</v>
       </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="81"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>21</v>
       </c>
@@ -1762,7 +1778,7 @@
         <v>44899</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
@@ -2010,7 +2026,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
@@ -2077,7 +2093,7 @@
       <c r="BK7" s="39"/>
       <c r="BL7" s="39"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44" t="s">
         <v>23</v>
       </c>
@@ -2150,7 +2166,7 @@
       <c r="BK8" s="39"/>
       <c r="BL8" s="39"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="44" t="s">
         <v>28</v>
       </c>
@@ -2168,7 +2184,7 @@
         <v>44844</v>
       </c>
       <c r="F9" s="75">
-        <f t="shared" ref="F9:F13" si="7">E9+7</f>
+        <f t="shared" ref="F9:F12" si="7">E9+7</f>
         <v>44851</v>
       </c>
       <c r="G9" s="17"/>
@@ -2233,7 +2249,7 @@
       <c r="BK9" s="39"/>
       <c r="BL9" s="39"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
         <v>24</v>
       </c>
@@ -2316,7 +2332,7 @@
       <c r="BK10" s="39"/>
       <c r="BL10" s="39"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="43"/>
       <c r="B11" s="72" t="s">
         <v>35</v>
@@ -2397,7 +2413,7 @@
       <c r="BK11" s="39"/>
       <c r="BL11" s="39"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="43"/>
       <c r="B12" s="72" t="s">
         <v>37</v>
@@ -2478,15 +2494,15 @@
       <c r="BK12" s="39"/>
       <c r="BL12" s="39"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="43"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="78">
         <v>1</v>
       </c>
       <c r="E13" s="75">
@@ -2556,7 +2572,7 @@
       <c r="BK13" s="39"/>
       <c r="BL13" s="39"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="43"/>
       <c r="B14" s="72" t="s">
         <v>39</v>
@@ -2637,7 +2653,7 @@
       <c r="BK14" s="39"/>
       <c r="BL14" s="39"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="44" t="s">
         <v>25</v>
       </c>
@@ -2710,7 +2726,7 @@
       <c r="BK15" s="39"/>
       <c r="BL15" s="39"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="44"/>
       <c r="B16" s="61" t="s">
         <v>45</v>
@@ -2791,12 +2807,14 @@
       <c r="BK16" s="39"/>
       <c r="BL16" s="39"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="43"/>
       <c r="B17" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="55" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="22">
         <v>0</v>
       </c>
@@ -2831,7 +2849,7 @@
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
       <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
+      <c r="AA17" s="85"/>
       <c r="AB17" s="39"/>
       <c r="AC17" s="39"/>
       <c r="AD17" s="39"/>
@@ -2870,7 +2888,7 @@
       <c r="BK17" s="39"/>
       <c r="BL17" s="39"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="43"/>
       <c r="B18" s="61" t="s">
         <v>47</v>
@@ -2949,7 +2967,7 @@
       <c r="BK18" s="39"/>
       <c r="BL18" s="39"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="43"/>
       <c r="B19" s="61" t="s">
         <v>48</v>
@@ -3030,7 +3048,7 @@
       <c r="BK19" s="39"/>
       <c r="BL19" s="39"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="43"/>
       <c r="B20" s="61" t="s">
         <v>2</v>
@@ -3107,7 +3125,7 @@
       <c r="BK20" s="39"/>
       <c r="BL20" s="39"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="43" t="s">
         <v>16</v>
       </c>
@@ -3180,7 +3198,7 @@
       <c r="BK21" s="39"/>
       <c r="BL21" s="39"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="43"/>
       <c r="B22" s="62" t="s">
         <v>3</v>
@@ -3257,7 +3275,7 @@
       <c r="BK22" s="39"/>
       <c r="BL22" s="39"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="43"/>
       <c r="B23" s="62" t="s">
         <v>4</v>
@@ -3334,7 +3352,7 @@
       <c r="BK23" s="39"/>
       <c r="BL23" s="39"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="43"/>
       <c r="B24" s="62" t="s">
         <v>0</v>
@@ -3411,7 +3429,7 @@
       <c r="BK24" s="39"/>
       <c r="BL24" s="39"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="43"/>
       <c r="B25" s="62" t="s">
         <v>1</v>
@@ -3488,7 +3506,7 @@
       <c r="BK25" s="39"/>
       <c r="BL25" s="39"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="43"/>
       <c r="B26" s="62" t="s">
         <v>2</v>
@@ -3565,7 +3583,7 @@
       <c r="BK26" s="39"/>
       <c r="BL26" s="39"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="43" t="s">
         <v>16</v>
       </c>
@@ -3638,7 +3656,7 @@
       <c r="BK27" s="39"/>
       <c r="BL27" s="39"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="43"/>
       <c r="B28" s="63" t="s">
         <v>3</v>
@@ -3713,7 +3731,7 @@
       <c r="BK28" s="39"/>
       <c r="BL28" s="39"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="43"/>
       <c r="B29" s="63" t="s">
         <v>4</v>
@@ -3788,7 +3806,7 @@
       <c r="BK29" s="39"/>
       <c r="BL29" s="39"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="43"/>
       <c r="B30" s="63" t="s">
         <v>0</v>
@@ -3863,7 +3881,7 @@
       <c r="BK30" s="39"/>
       <c r="BL30" s="39"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="43"/>
       <c r="B31" s="63" t="s">
         <v>1</v>
@@ -3938,7 +3956,7 @@
       <c r="BK31" s="39"/>
       <c r="BL31" s="39"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="43"/>
       <c r="B32" s="63" t="s">
         <v>2</v>
@@ -4013,7 +4031,7 @@
       <c r="BK32" s="39"/>
       <c r="BL32" s="39"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="43" t="s">
         <v>18</v>
       </c>
@@ -4084,7 +4102,7 @@
       <c r="BK33" s="39"/>
       <c r="BL33" s="39"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="44" t="s">
         <v>17</v>
       </c>
@@ -4157,29 +4175,29 @@
       <c r="BK34" s="41"/>
       <c r="BL34" s="41"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="14"/>
       <c r="F36" s="45"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:D34 D7">
     <cfRule type="dataBar" priority="14">
